--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\data\manual_adjust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8730E2C1-8DDD-45A0-B139-9A370FA89F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14998A-FFDC-4943-94A4-AA654916BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="320">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -972,6 +972,30 @@
   </si>
   <si>
     <t>15_02_02_04_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_05_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_05_01_diesel_engine</t>
+  </si>
+  <si>
+    <t>15_02_01_05_02_gasoline_engine</t>
+  </si>
+  <si>
+    <t>15_02_01_05_03_battery_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_05_04_compressed_natual_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_05_05_plugin_hybrid_ev_gasoline</t>
+  </si>
+  <si>
+    <t>15_02_01_05_06_plugin_hybrid_ev_diesel</t>
+  </si>
+  <si>
+    <t>15_02_01_05_07_liquified_petroleum_gas</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -3431,10 +3451,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="C197" t="s">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="D197" t="s">
         <v>107</v>
@@ -3442,10 +3462,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C198" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D198" t="s">
         <v>107</v>
@@ -3453,10 +3473,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="D199" t="s">
         <v>107</v>
@@ -3464,10 +3484,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="C200" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="D200" t="s">
         <v>107</v>
@@ -3475,10 +3495,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="C201" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="D201" t="s">
         <v>107</v>
@@ -3486,10 +3506,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="C202" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="D202" t="s">
         <v>107</v>
@@ -3497,10 +3517,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="C203" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="D203" t="s">
         <v>107</v>
@@ -3508,10 +3528,10 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C204" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D204" t="s">
         <v>107</v>
@@ -3519,10 +3539,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D205" t="s">
         <v>107</v>
@@ -3530,10 +3550,10 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="C206" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="D206" t="s">
         <v>107</v>
@@ -3541,10 +3561,10 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C207" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D207" t="s">
         <v>107</v>
@@ -3552,10 +3572,10 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C208" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D208" t="s">
         <v>107</v>
@@ -3563,10 +3583,10 @@
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C209" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D209" t="s">
         <v>107</v>
@@ -3574,10 +3594,10 @@
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C210" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D210" t="s">
         <v>107</v>
@@ -3585,10 +3605,10 @@
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C211" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D211" t="s">
         <v>107</v>
@@ -3596,10 +3616,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="D212" t="s">
         <v>107</v>
@@ -3607,10 +3627,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C213" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D213" t="s">
         <v>107</v>
@@ -3618,10 +3638,10 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="C214" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="D214" t="s">
         <v>107</v>
@@ -3629,10 +3649,10 @@
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D215" t="s">
         <v>107</v>
@@ -3640,10 +3660,10 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C216" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D216" t="s">
         <v>107</v>
@@ -3651,10 +3671,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C217" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D217" t="s">
         <v>107</v>
@@ -3662,10 +3682,10 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C218" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D218" t="s">
         <v>107</v>
@@ -3673,10 +3693,10 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C219" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D219" t="s">
         <v>107</v>
@@ -3684,10 +3704,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="C220" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="D220" t="s">
         <v>107</v>
@@ -3695,10 +3715,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D221" t="s">
         <v>107</v>
@@ -3706,10 +3726,10 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C222" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D222" t="s">
         <v>107</v>
@@ -3717,10 +3737,10 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C223" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D223" t="s">
         <v>107</v>
@@ -3728,10 +3748,10 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D224" t="s">
         <v>107</v>
@@ -3739,10 +3759,10 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C225" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D225" t="s">
         <v>107</v>
@@ -3750,10 +3770,10 @@
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C226" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D226" t="s">
         <v>107</v>
@@ -3761,10 +3781,10 @@
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C227" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D227" t="s">
         <v>107</v>
@@ -3772,10 +3792,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="C228" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="D228" t="s">
         <v>107</v>
@@ -3783,10 +3803,10 @@
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="C229" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="D229" t="s">
         <v>107</v>
@@ -3794,10 +3814,10 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C230" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D230" t="s">
         <v>107</v>
@@ -3805,10 +3825,10 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D231" t="s">
         <v>107</v>
@@ -3816,10 +3836,10 @@
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C232" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D232" t="s">
         <v>107</v>
@@ -3827,10 +3847,10 @@
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C233" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D233" t="s">
         <v>107</v>
@@ -3838,10 +3858,10 @@
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="D234" t="s">
         <v>107</v>
@@ -3849,10 +3869,10 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C235" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="D235" t="s">
         <v>107</v>
@@ -3860,10 +3880,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C236" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D236" t="s">
         <v>107</v>
@@ -3871,10 +3891,10 @@
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="C237" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="D237" t="s">
         <v>107</v>
@@ -3882,10 +3902,10 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="C238" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="D238" t="s">
         <v>107</v>
@@ -3893,10 +3913,10 @@
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="C239" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="D239" t="s">
         <v>107</v>
@@ -3904,10 +3924,10 @@
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="C240" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="D240" t="s">
         <v>107</v>
@@ -3915,10 +3935,10 @@
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D241" t="s">
         <v>107</v>
@@ -3926,10 +3946,10 @@
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D242" t="s">
         <v>107</v>
@@ -3937,10 +3957,10 @@
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D243" t="s">
         <v>107</v>
@@ -3948,10 +3968,10 @@
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D244" t="s">
         <v>107</v>
@@ -3959,10 +3979,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D245" t="s">
         <v>107</v>
@@ -3970,10 +3990,10 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D246" t="s">
         <v>107</v>
@@ -3981,10 +4001,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D247" t="s">
         <v>107</v>
@@ -3992,10 +4012,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D248" t="s">
         <v>107</v>
@@ -4003,10 +4023,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D249" t="s">
         <v>107</v>
@@ -4014,10 +4034,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D250" t="s">
         <v>107</v>
@@ -4025,10 +4045,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D251" t="s">
         <v>107</v>
@@ -4036,10 +4056,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D252" t="s">
         <v>107</v>
@@ -4047,10 +4067,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D253" t="s">
         <v>107</v>
@@ -4058,10 +4078,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D254" t="s">
         <v>107</v>
@@ -4069,10 +4089,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D255" t="s">
         <v>107</v>
@@ -4080,10 +4100,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D256" t="s">
         <v>107</v>
@@ -4091,10 +4111,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D257" t="s">
         <v>107</v>
@@ -4102,10 +4122,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D258" t="s">
         <v>107</v>
@@ -4113,10 +4133,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D259" t="s">
         <v>107</v>
@@ -4124,10 +4144,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D260" t="s">
         <v>107</v>
@@ -4135,10 +4155,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D261" t="s">
         <v>107</v>
@@ -4146,10 +4166,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D262" t="s">
         <v>107</v>
@@ -4157,10 +4177,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D263" t="s">
         <v>107</v>
@@ -4168,10 +4188,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D264" t="s">
         <v>107</v>
@@ -4179,10 +4199,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D265" t="s">
         <v>107</v>
@@ -4190,10 +4210,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D266" t="s">
         <v>107</v>
@@ -4201,10 +4221,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C267" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D267" t="s">
         <v>107</v>
@@ -4212,10 +4232,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C268" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D268" t="s">
         <v>107</v>
@@ -4223,10 +4243,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D269" t="s">
         <v>107</v>
@@ -4234,10 +4254,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D270" t="s">
         <v>107</v>
@@ -4245,10 +4265,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D271" t="s">
         <v>107</v>
@@ -4256,10 +4276,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D272" t="s">
         <v>107</v>
@@ -4267,10 +4287,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D273" t="s">
         <v>107</v>
@@ -4278,10 +4298,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D274" t="s">
         <v>107</v>
@@ -4289,10 +4309,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C275" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D275" t="s">
         <v>107</v>
@@ -4300,10 +4320,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C276" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D276" t="s">
         <v>107</v>
@@ -4311,10 +4331,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C277" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D277" t="s">
         <v>107</v>
@@ -4322,10 +4342,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D278" t="s">
         <v>107</v>
@@ -4333,10 +4353,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="D279" t="s">
         <v>107</v>
@@ -4344,13 +4364,98 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
+        <v>304</v>
+      </c>
+      <c r="C280" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>305</v>
+      </c>
+      <c r="C281" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>306</v>
+      </c>
+      <c r="C282" t="s">
+        <v>306</v>
+      </c>
+      <c r="D282" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>307</v>
+      </c>
+      <c r="C283" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>308</v>
+      </c>
+      <c r="C284" t="s">
+        <v>308</v>
+      </c>
+      <c r="D284" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>309</v>
+      </c>
+      <c r="C285" t="s">
+        <v>309</v>
+      </c>
+      <c r="D285" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>310</v>
+      </c>
+      <c r="C286" t="s">
+        <v>310</v>
+      </c>
+      <c r="D286" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
         <v>311</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C287" t="s">
         <v>311</v>
       </c>
-      <c r="D280" t="s">
-        <v>107</v>
+      <c r="D287" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>312</v>
+      </c>
+      <c r="C288" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4369,6 +4474,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4579,17 +4695,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
   <ds:schemaRefs>
@@ -4599,6 +4704,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4615,15 +4731,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14998A-FFDC-4943-94A4-AA654916BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CD9910-BF45-48E8-BCE5-6C459D327D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -176,51 +176,6 @@
     <t>10_01_03_liquefaction_regasification_plants</t>
   </si>
   <si>
-    <t>10_01_05_natural_gas_blending_plants</t>
-  </si>
-  <si>
-    <t>10_01_06_gastoliquids_plants</t>
-  </si>
-  <si>
-    <t>10_01_07_gas_separation</t>
-  </si>
-  <si>
-    <t>10_01_08_coke_ovens</t>
-  </si>
-  <si>
-    <t>10_01_09_coal_mines</t>
-  </si>
-  <si>
-    <t>10_01_10_blast_furnaces</t>
-  </si>
-  <si>
-    <t>10_01_11_patent_fuel_plants</t>
-  </si>
-  <si>
-    <t>10_01_12_bkb_pb_plants</t>
-  </si>
-  <si>
-    <t>10_01_13_liquefaction_plants_coal_to_oil</t>
-  </si>
-  <si>
-    <t>10_01_14_oil_refineries</t>
-  </si>
-  <si>
-    <t>10_01_15_oil_and_gas_extraction</t>
-  </si>
-  <si>
-    <t>10_01_16_biofuels_processing</t>
-  </si>
-  <si>
-    <t>10_01_17_nuclear_industry</t>
-  </si>
-  <si>
-    <t>10_01_18_nonspecified_own_uses</t>
-  </si>
-  <si>
-    <t>10_02_transmision_and_distribution_losses</t>
-  </si>
-  <si>
     <t>11_statistical_discrepancy</t>
   </si>
   <si>
@@ -996,6 +951,51 @@
   </si>
   <si>
     <t>15_02_01_05_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>10_01_04_gastoliquids_plants</t>
+  </si>
+  <si>
+    <t>10_01_05_coke_ovens</t>
+  </si>
+  <si>
+    <t>10_01_06_coal_mines</t>
+  </si>
+  <si>
+    <t>10_01_07_blast_furnaces</t>
+  </si>
+  <si>
+    <t>10_01_10_liquefaction_plants_coal_to_oil</t>
+  </si>
+  <si>
+    <t>10_01_11_oil_refineries</t>
+  </si>
+  <si>
+    <t>10_01_12_oil_and_gas_extraction</t>
+  </si>
+  <si>
+    <t>10_01_13_pump_storage_plants</t>
+  </si>
+  <si>
+    <t>10_01_14_nuclear_industry</t>
+  </si>
+  <si>
+    <t>10_01_15_charcoal_production_plants</t>
+  </si>
+  <si>
+    <t>10_01_16_gasification_plants_for_biogases</t>
+  </si>
+  <si>
+    <t>10_01_17_nonspecified_own_uses</t>
+  </si>
+  <si>
+    <t>10_01_08_patent_fuel_plants</t>
+  </si>
+  <si>
+    <t>10_01_09_bkb_pb_plants</t>
+  </si>
+  <si>
+    <t>10_02_transmission_and_distribution_losses</t>
   </si>
 </sst>
 </file>
@@ -1480,33 +1480,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
   <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1633,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1644,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1655,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1666,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1677,7 +1677,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1688,7 +1688,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1699,7 +1699,7 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1710,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1721,7 +1721,7 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1743,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1754,7 +1754,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1765,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1787,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1809,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1820,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1843,7 +1843,7 @@
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1859,417 +1859,417 @@
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
+        <v>305</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
+        <v>306</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
+        <v>307</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
+        <v>308</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
+        <v>317</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
+        <v>318</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
+        <v>309</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
+        <v>310</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
+        <v>311</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
+        <v>312</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
+        <v>313</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
+        <v>314</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
+        <v>315</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
+        <v>316</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="16" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" thickBot="1">
       <c r="A87" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" ht="16" thickTop="1">
+    <row r="88" spans="1:5" ht="16.5" thickTop="1">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2277,10 +2277,10 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2288,13 +2288,13 @@
         <v>15</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2307,13 +2307,13 @@
         <v>16</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2326,13 +2326,13 @@
         <v>17</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2342,2120 +2342,2120 @@
     </row>
     <row r="96" spans="1:5">
       <c r="C96" s="12" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="C99" s="14" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="15" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="18" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="20" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="20" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="22" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" thickBot="1">
       <c r="A109" s="24" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="16" thickTop="1">
+    <row r="110" spans="1:5" ht="16.5" thickTop="1">
       <c r="B110" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="B111" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="B112" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D117" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D119" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D123" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D128" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C130" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D132" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D134" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D139" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C142" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D142" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D145" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D148" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C149" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C150" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D150" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C152" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D155" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D157" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D158" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C161" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C164" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C166" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C167" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C169" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D169" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C170" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D170" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C172" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C173" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C174" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D174" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D175" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D176" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D177" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C178" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D178" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C179" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D179" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C180" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C181" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D181" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C182" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D182" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C183" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D183" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C184" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D184" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C185" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C186" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D186" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C187" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D187" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C188" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D188" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D189" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D190" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D191" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C192" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C193" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C194" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D194" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C195" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D195" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C196" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D196" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C197" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D197" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D198" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C199" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D199" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D200" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D201" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D202" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C203" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D203" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C204" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D204" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C205" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D205" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C206" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D206" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C207" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D207" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C208" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D208" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C209" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D209" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C210" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D210" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C211" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D211" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C212" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D212" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C213" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D213" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C214" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D214" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C215" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D215" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C216" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D216" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C217" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D217" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C218" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D218" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D219" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C220" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D220" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C221" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D221" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C222" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D222" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C223" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D223" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C224" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D224" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C225" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D225" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C226" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D226" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C227" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D227" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C228" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D228" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C229" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D229" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D230" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C231" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D231" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C232" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D232" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C233" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C234" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C235" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C236" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D236" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C237" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D237" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C238" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D238" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C239" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D239" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C240" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D240" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C241" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D241" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C242" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D242" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C243" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D243" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C244" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D244" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C245" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D245" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C246" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D246" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D247" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C248" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D248" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C249" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D249" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C250" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D250" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C251" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D251" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C252" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D252" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C253" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D253" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C254" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D254" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C255" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D255" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C256" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D256" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C257" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D257" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C258" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D258" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C259" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D259" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C260" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D260" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C261" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D261" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D262" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C263" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D263" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D264" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C265" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D265" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C266" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D266" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C267" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D267" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D268" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C269" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D269" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C270" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D270" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C271" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D271" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C272" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D272" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C273" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D273" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C274" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D274" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C275" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D275" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C276" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D276" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C277" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D277" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C278" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D278" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C279" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D279" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C280" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D280" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C281" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D281" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D282" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D283" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C284" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D284" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C285" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D285" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C286" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D286" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D287" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C288" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4465,15 +4465,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
@@ -4482,6 +4473,15 @@
     <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4696,20 +4696,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
     <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CD9910-BF45-48E8-BCE5-6C459D327D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5E41E-F1F9-4B50-B1A2-CC2DE972EE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="322">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -996,6 +996,12 @@
   </si>
   <si>
     <t>10_02_transmission_and_distribution_losses</t>
+  </si>
+  <si>
+    <t>19_02_05_others</t>
+  </si>
+  <si>
+    <t>19_02_17_electricity</t>
   </si>
 </sst>
 </file>
@@ -1182,9 +1188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1222,7 +1228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1328,7 +1334,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1470,7 +1476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279:D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4364,10 +4370,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C280" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4375,10 +4381,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="C281" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4386,10 +4392,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C282" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4397,10 +4403,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C283" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4408,10 +4414,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C284" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4419,10 +4425,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C285" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4430,10 +4436,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C286" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4441,10 +4447,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C287" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4452,9 +4458,31 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
+        <v>295</v>
+      </c>
+      <c r="C288" t="s">
+        <v>295</v>
+      </c>
+      <c r="D288" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>296</v>
+      </c>
+      <c r="C289" t="s">
+        <v>296</v>
+      </c>
+      <c r="D289" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
         <v>297</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C290" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4465,6 +4493,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
@@ -4473,15 +4510,6 @@
     <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4696,20 +4724,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
     <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5E41E-F1F9-4B50-B1A2-CC2DE972EE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8202F-DB5D-4F05-A0D7-8E93A13BEA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="320">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -734,15 +734,6 @@
     <t>18_01_02_gas_power</t>
   </si>
   <si>
-    <t>18_01_02_01_gasturbine</t>
-  </si>
-  <si>
-    <t>18_01_02_02_combinedcycle</t>
-  </si>
-  <si>
-    <t>18_01_02_03_ccs</t>
-  </si>
-  <si>
     <t>18_01_03_oil</t>
   </si>
   <si>
@@ -1002,6 +993,9 @@
   </si>
   <si>
     <t>19_02_17_electricity</t>
+  </si>
+  <si>
+    <t>18_01_02_gas_power_ccs</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279:D281"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1871,122 +1865,122 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2332,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" t="s">
         <v>172</v>
@@ -2348,7 +2342,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="C96" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" t="s">
         <v>177</v>
@@ -2841,7 +2835,7 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C141" t="s">
         <v>222</v>
@@ -2852,7 +2846,7 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s">
         <v>223</v>
@@ -2863,7 +2857,7 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
         <v>224</v>
@@ -2874,7 +2868,7 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C144" t="s">
         <v>225</v>
@@ -2885,10 +2879,10 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
@@ -2896,10 +2890,10 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
@@ -2907,10 +2901,10 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
@@ -2918,10 +2912,10 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
         <v>92</v>
@@ -2929,10 +2923,10 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C149" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D149" t="s">
         <v>92</v>
@@ -2940,10 +2934,10 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D150" t="s">
         <v>92</v>
@@ -2951,10 +2945,10 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C151" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
@@ -3182,10 +3176,10 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
@@ -3270,10 +3264,10 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C180" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
@@ -3358,10 +3352,10 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
@@ -3446,10 +3440,10 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C196" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
@@ -3457,10 +3451,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C197" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
@@ -3468,10 +3462,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
@@ -3479,10 +3473,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
@@ -3490,10 +3484,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C200" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
@@ -3501,10 +3495,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C201" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
@@ -3512,10 +3506,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C202" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -3523,10 +3517,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
@@ -3545,10 +3539,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C205" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
@@ -3622,10 +3616,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C212" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
@@ -3633,10 +3627,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C213" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
@@ -3710,10 +3704,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C220" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D220" t="s">
         <v>92</v>
@@ -3721,10 +3715,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D221" t="s">
         <v>92</v>
@@ -3798,10 +3792,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C228" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D228" t="s">
         <v>92</v>
@@ -3886,10 +3880,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C236" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D236" t="s">
         <v>92</v>
@@ -4007,10 +4001,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="C247" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="D247" t="s">
         <v>92</v>
@@ -4018,10 +4012,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D248" t="s">
         <v>92</v>
@@ -4029,10 +4023,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C249" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D249" t="s">
         <v>92</v>
@@ -4040,10 +4034,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C250" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D250" t="s">
         <v>92</v>
@@ -4051,10 +4045,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C251" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D251" t="s">
         <v>92</v>
@@ -4062,10 +4056,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D252" t="s">
         <v>92</v>
@@ -4073,10 +4067,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C253" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D253" t="s">
         <v>92</v>
@@ -4084,10 +4078,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C254" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D254" t="s">
         <v>92</v>
@@ -4095,10 +4089,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C255" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D255" t="s">
         <v>92</v>
@@ -4106,10 +4100,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D256" t="s">
         <v>92</v>
@@ -4117,10 +4111,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D257" t="s">
         <v>92</v>
@@ -4128,10 +4122,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C258" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D258" t="s">
         <v>92</v>
@@ -4139,10 +4133,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C259" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D259" t="s">
         <v>92</v>
@@ -4150,10 +4144,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D260" t="s">
         <v>92</v>
@@ -4161,10 +4155,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C261" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
@@ -4172,10 +4166,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C262" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D262" t="s">
         <v>92</v>
@@ -4183,10 +4177,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C263" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D263" t="s">
         <v>92</v>
@@ -4194,10 +4188,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C264" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D264" t="s">
         <v>92</v>
@@ -4205,10 +4199,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C265" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D265" t="s">
         <v>92</v>
@@ -4216,10 +4210,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C266" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D266" t="s">
         <v>92</v>
@@ -4227,10 +4221,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C267" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D267" t="s">
         <v>92</v>
@@ -4238,10 +4232,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C268" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D268" t="s">
         <v>92</v>
@@ -4249,10 +4243,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D269" t="s">
         <v>92</v>
@@ -4260,10 +4254,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C270" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D270" t="s">
         <v>92</v>
@@ -4271,10 +4265,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C271" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D271" t="s">
         <v>92</v>
@@ -4282,10 +4276,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D272" t="s">
         <v>92</v>
@@ -4293,10 +4287,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C273" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D273" t="s">
         <v>92</v>
@@ -4304,10 +4298,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C274" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D274" t="s">
         <v>92</v>
@@ -4315,10 +4309,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C275" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D275" t="s">
         <v>92</v>
@@ -4326,10 +4320,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D276" t="s">
         <v>92</v>
@@ -4337,10 +4331,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D277" t="s">
         <v>92</v>
@@ -4348,10 +4342,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C278" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D278" t="s">
         <v>92</v>
@@ -4359,10 +4353,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C279" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="D279" t="s">
         <v>92</v>
@@ -4370,10 +4364,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C280" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4381,10 +4375,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C281" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4392,10 +4386,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4403,10 +4397,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C283" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4414,10 +4408,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4425,10 +4419,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4436,10 +4430,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C286" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4447,10 +4441,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C287" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4458,32 +4452,10 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C288" t="s">
-        <v>295</v>
-      </c>
-      <c r="D288" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4">
-      <c r="B289" t="s">
-        <v>296</v>
-      </c>
-      <c r="C289" t="s">
-        <v>296</v>
-      </c>
-      <c r="D289" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4">
-      <c r="B290" t="s">
-        <v>297</v>
-      </c>
-      <c r="C290" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4493,26 +4465,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4723,10 +4675,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4743,20 +4726,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8202F-DB5D-4F05-A0D7-8E93A13BEA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12296E64-BCBB-4CD6-BE26-1C3E576364C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>18_01_02_gas_power_ccs</t>
+  </si>
+  <si>
+    <t>09_01_02_gas_power_ccs</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2560,10 +2563,10 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
         <v>92</v>
@@ -2571,10 +2574,10 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
         <v>92</v>
@@ -2582,10 +2585,10 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
@@ -2593,10 +2596,10 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D119" t="s">
         <v>92</v>
@@ -2604,10 +2607,10 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
@@ -2615,10 +2618,10 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
@@ -2626,10 +2629,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>
@@ -2648,10 +2651,10 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -2659,10 +2662,10 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
@@ -2670,10 +2673,10 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
@@ -2681,10 +2684,10 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
@@ -2692,10 +2695,10 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
@@ -2703,10 +2706,10 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
@@ -2714,10 +2717,10 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D130" t="s">
         <v>92</v>
@@ -2725,10 +2728,10 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
@@ -2747,10 +2750,10 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
@@ -2758,10 +2761,10 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s">
         <v>92</v>
@@ -2769,10 +2772,10 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D135" t="s">
         <v>92</v>
@@ -2780,10 +2783,10 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D136" t="s">
         <v>92</v>
@@ -2791,10 +2794,10 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D137" t="s">
         <v>92</v>
@@ -2802,10 +2805,10 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
         <v>92</v>
@@ -2813,10 +2816,10 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s">
         <v>92</v>
@@ -2824,10 +2827,10 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D140" t="s">
         <v>92</v>
@@ -2835,10 +2838,10 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" t="s">
         <v>92</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D142" t="s">
         <v>92</v>
@@ -2857,10 +2860,10 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D143" t="s">
         <v>92</v>
@@ -2868,10 +2871,10 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D144" t="s">
         <v>92</v>
@@ -2879,10 +2882,10 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
@@ -2890,10 +2893,10 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
@@ -2901,10 +2904,10 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
@@ -2912,10 +2915,10 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D148" t="s">
         <v>92</v>
@@ -2923,10 +2926,10 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D149" t="s">
         <v>92</v>
@@ -2934,10 +2937,10 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D150" t="s">
         <v>92</v>
@@ -2945,10 +2948,10 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
@@ -2956,10 +2959,10 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="C152" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D152" t="s">
         <v>92</v>
@@ -2967,10 +2970,10 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
@@ -2978,10 +2981,10 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D154" t="s">
         <v>92</v>
@@ -2989,10 +2992,10 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
@@ -3000,10 +3003,10 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D156" t="s">
         <v>92</v>
@@ -3011,10 +3014,10 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C157" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
@@ -3022,10 +3025,10 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
@@ -3033,10 +3036,10 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
@@ -3044,10 +3047,10 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C160" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
@@ -3055,10 +3058,10 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C161" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
@@ -3066,10 +3069,10 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C162" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
@@ -3077,10 +3080,10 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
@@ -3088,10 +3091,10 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C164" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D164" t="s">
         <v>92</v>
@@ -3099,10 +3102,10 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D165" t="s">
         <v>92</v>
@@ -3110,10 +3113,10 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D166" t="s">
         <v>92</v>
@@ -3121,10 +3124,10 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D167" t="s">
         <v>92</v>
@@ -3132,10 +3135,10 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C168" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D168" t="s">
         <v>92</v>
@@ -3143,10 +3146,10 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C169" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D169" t="s">
         <v>92</v>
@@ -3154,10 +3157,10 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C170" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
@@ -3165,10 +3168,10 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
@@ -3176,10 +3179,10 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="C172" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
@@ -3187,10 +3190,10 @@
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="D173" t="s">
         <v>92</v>
@@ -3198,10 +3201,10 @@
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C174" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D174" t="s">
         <v>92</v>
@@ -3209,10 +3212,10 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C175" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
@@ -3220,10 +3223,10 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C176" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
@@ -3231,10 +3234,10 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C177" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
@@ -3242,10 +3245,10 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D178" t="s">
         <v>92</v>
@@ -3253,10 +3256,10 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C179" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
@@ -3264,10 +3267,10 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C180" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
@@ -3275,10 +3278,10 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="C181" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
@@ -3286,10 +3289,10 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
@@ -3297,10 +3300,10 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
@@ -3308,10 +3311,10 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D184" t="s">
         <v>92</v>
@@ -3319,10 +3322,10 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D185" t="s">
         <v>92</v>
@@ -3330,10 +3333,10 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D186" t="s">
         <v>92</v>
@@ -3341,10 +3344,10 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D187" t="s">
         <v>92</v>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="C188" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
@@ -3363,10 +3366,10 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D189" t="s">
         <v>92</v>
@@ -3374,10 +3377,10 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C190" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D190" t="s">
         <v>92</v>
@@ -3385,10 +3388,10 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C191" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D191" t="s">
         <v>92</v>
@@ -3396,10 +3399,10 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D192" t="s">
         <v>92</v>
@@ -3407,10 +3410,10 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D193" t="s">
         <v>92</v>
@@ -3418,10 +3421,10 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D194" t="s">
         <v>92</v>
@@ -3429,10 +3432,10 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
@@ -3440,10 +3443,10 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
@@ -3451,10 +3454,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
@@ -3462,10 +3465,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
@@ -3473,10 +3476,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
@@ -3484,10 +3487,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
@@ -3495,10 +3498,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
@@ -3506,10 +3509,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -3517,10 +3520,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C203" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
@@ -3528,10 +3531,10 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="C204" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
@@ -3539,10 +3542,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="C205" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
@@ -3550,10 +3553,10 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="D206" t="s">
         <v>92</v>
@@ -3561,10 +3564,10 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C207" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D207" t="s">
         <v>92</v>
@@ -3572,10 +3575,10 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C208" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D208" t="s">
         <v>92</v>
@@ -3583,10 +3586,10 @@
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C209" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D209" t="s">
         <v>92</v>
@@ -3594,10 +3597,10 @@
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C210" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D210" t="s">
         <v>92</v>
@@ -3605,10 +3608,10 @@
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C211" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D211" t="s">
         <v>92</v>
@@ -3616,10 +3619,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
@@ -3627,10 +3630,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C213" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
@@ -3638,10 +3641,10 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="C214" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="D214" t="s">
         <v>92</v>
@@ -3649,10 +3652,10 @@
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C215" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D215" t="s">
         <v>92</v>
@@ -3660,10 +3663,10 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C216" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D216" t="s">
         <v>92</v>
@@ -3671,10 +3674,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -3682,10 +3685,10 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C218" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -3693,10 +3696,10 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -3704,10 +3707,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="C220" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="D220" t="s">
         <v>92</v>
@@ -3715,10 +3718,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D221" t="s">
         <v>92</v>
@@ -3726,10 +3729,10 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="C222" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="D222" t="s">
         <v>92</v>
@@ -3737,10 +3740,10 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D223" t="s">
         <v>92</v>
@@ -3748,10 +3751,10 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D224" t="s">
         <v>92</v>
@@ -3759,10 +3762,10 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C225" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D225" t="s">
         <v>92</v>
@@ -3770,10 +3773,10 @@
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C226" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D226" t="s">
         <v>92</v>
@@ -3781,10 +3784,10 @@
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C227" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D227" t="s">
         <v>92</v>
@@ -3792,10 +3795,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="C228" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="D228" t="s">
         <v>92</v>
@@ -3803,10 +3806,10 @@
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="C229" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D229" t="s">
         <v>92</v>
@@ -3814,10 +3817,10 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D230" t="s">
         <v>92</v>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C231" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D231" t="s">
         <v>92</v>
@@ -3836,10 +3839,10 @@
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C232" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D232" t="s">
         <v>92</v>
@@ -3847,10 +3850,10 @@
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C233" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D233" t="s">
         <v>92</v>
@@ -3858,10 +3861,10 @@
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C234" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D234" t="s">
         <v>92</v>
@@ -3869,10 +3872,10 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D235" t="s">
         <v>92</v>
@@ -3880,10 +3883,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C236" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="D236" t="s">
         <v>92</v>
@@ -3891,10 +3894,10 @@
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C237" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="D237" t="s">
         <v>92</v>
@@ -3902,10 +3905,10 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C238" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D238" t="s">
         <v>92</v>
@@ -3913,10 +3916,10 @@
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C239" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D239" t="s">
         <v>92</v>
@@ -3924,10 +3927,10 @@
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C240" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D240" t="s">
         <v>92</v>
@@ -3935,10 +3938,10 @@
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="D241" t="s">
         <v>92</v>
@@ -3946,10 +3949,10 @@
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D242" t="s">
         <v>92</v>
@@ -3957,10 +3960,10 @@
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C243" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D243" t="s">
         <v>92</v>
@@ -3968,10 +3971,10 @@
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D244" t="s">
         <v>92</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D245" t="s">
         <v>92</v>
@@ -3990,10 +3993,10 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D246" t="s">
         <v>92</v>
@@ -4001,10 +4004,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C247" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="D247" t="s">
         <v>92</v>
@@ -4012,10 +4015,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="C248" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="D248" t="s">
         <v>92</v>
@@ -4023,10 +4026,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D249" t="s">
         <v>92</v>
@@ -4034,10 +4037,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C250" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D250" t="s">
         <v>92</v>
@@ -4045,10 +4048,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D251" t="s">
         <v>92</v>
@@ -4056,10 +4059,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D252" t="s">
         <v>92</v>
@@ -4067,10 +4070,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D253" t="s">
         <v>92</v>
@@ -4078,10 +4081,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D254" t="s">
         <v>92</v>
@@ -4089,10 +4092,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D255" t="s">
         <v>92</v>
@@ -4100,10 +4103,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D256" t="s">
         <v>92</v>
@@ -4111,10 +4114,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D257" t="s">
         <v>92</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D258" t="s">
         <v>92</v>
@@ -4133,10 +4136,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C259" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D259" t="s">
         <v>92</v>
@@ -4144,10 +4147,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D260" t="s">
         <v>92</v>
@@ -4155,10 +4158,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
@@ -4166,10 +4169,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D262" t="s">
         <v>92</v>
@@ -4177,10 +4180,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D263" t="s">
         <v>92</v>
@@ -4188,10 +4191,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D264" t="s">
         <v>92</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D265" t="s">
         <v>92</v>
@@ -4210,10 +4213,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D266" t="s">
         <v>92</v>
@@ -4221,10 +4224,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D267" t="s">
         <v>92</v>
@@ -4232,10 +4235,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D268" t="s">
         <v>92</v>
@@ -4243,10 +4246,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D269" t="s">
         <v>92</v>
@@ -4254,10 +4257,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D270" t="s">
         <v>92</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D271" t="s">
         <v>92</v>
@@ -4276,10 +4279,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D272" t="s">
         <v>92</v>
@@ -4287,10 +4290,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D273" t="s">
         <v>92</v>
@@ -4298,10 +4301,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D274" t="s">
         <v>92</v>
@@ -4309,10 +4312,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C275" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D275" t="s">
         <v>92</v>
@@ -4320,10 +4323,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D276" t="s">
         <v>92</v>
@@ -4331,10 +4334,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D277" t="s">
         <v>92</v>
@@ -4342,10 +4345,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="C278" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="D278" t="s">
         <v>92</v>
@@ -4353,10 +4356,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C279" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D279" t="s">
         <v>92</v>
@@ -4364,10 +4367,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C280" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4375,10 +4378,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C281" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4386,10 +4389,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C282" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4397,10 +4400,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C283" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4408,10 +4411,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4419,10 +4422,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4430,10 +4433,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4441,10 +4444,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C287" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4452,9 +4455,20 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
+        <v>293</v>
+      </c>
+      <c r="C288" t="s">
+        <v>293</v>
+      </c>
+      <c r="D288" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" t="s">
         <v>294</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C289" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4465,6 +4479,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4675,27 +4709,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4712,23 +4745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12296E64-BCBB-4CD6-BE26-1C3E576364C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53D26-89C7-4CF1-8E7D-BD60134C9BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="323">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>09_01_02_gas_power_ccs</t>
+  </si>
+  <si>
+    <t>16_01_03_ai_training</t>
+  </si>
+  <si>
+    <t>16_01_04_traditional_data_centres</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4464,12 +4470,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
+    <row r="289" spans="2:4">
       <c r="B289" t="s">
         <v>294</v>
       </c>
       <c r="C289" t="s">
         <v>294</v>
+      </c>
+      <c r="D289" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D290" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D291" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4479,26 +4510,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4709,26 +4720,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4745,4 +4757,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12296E64-BCBB-4CD6-BE26-1C3E576364C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5DA354-CFD4-414F-8780-DE1A57A9354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>09_01_02_gas_power_ccs</t>
+  </si>
+  <si>
+    <t>16_01_03_traditional_data_centres</t>
+  </si>
+  <si>
+    <t>16_01_04_ai_training</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4472,6 +4478,22 @@
         <v>294</v>
       </c>
     </row>
+    <row r="290" spans="2:3">
+      <c r="B290" t="s">
+        <v>321</v>
+      </c>
+      <c r="C290" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" t="s">
+        <v>322</v>
+      </c>
+      <c r="C291" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4479,26 +4501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4709,26 +4711,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4745,4 +4748,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5DA354-CFD4-414F-8780-DE1A57A9354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69ADF-4F01-47A1-B8D4-B39398B68C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,10 @@
     <t>09_01_02_gas_power_ccs</t>
   </si>
   <si>
-    <t>16_01_03_traditional_data_centres</t>
-  </si>
-  <si>
-    <t>16_01_04_ai_training</t>
+    <t>16_01_03_ai_training</t>
+  </si>
+  <si>
+    <t>16_01_04_traditional_data_centres</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4480,18 +4480,18 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C290" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C291" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4501,6 +4501,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4711,27 +4731,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4748,23 +4767,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69ADF-4F01-47A1-B8D4-B39398B68C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53D26-89C7-4CF1-8E7D-BD60134C9BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="323">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
   <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4470,28 +4470,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
+    <row r="289" spans="2:4">
       <c r="B289" t="s">
         <v>294</v>
       </c>
       <c r="C289" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="290" spans="2:3">
-      <c r="B290" t="s">
+      <c r="D289" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D290" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="291" spans="2:3">
-      <c r="B291" t="s">
-        <v>321</v>
-      </c>
-      <c r="C291" t="s">
-        <v>321</v>
+      <c r="D291" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4501,26 +4510,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4731,26 +4720,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4767,4 +4757,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53D26-89C7-4CF1-8E7D-BD60134C9BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84DC710-A1EE-42EA-B49E-3B09FBFE2F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="5265" yWindow="1830" windowWidth="19425" windowHeight="10305" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="sectors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4510,6 +4510,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4720,15 +4729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4741,6 +4741,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4759,14 +4767,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
   <ds:schemaRefs>

--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C53D26-89C7-4CF1-8E7D-BD60134C9BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC3F10C-2A73-40D5-B1E3-60D0E3E62D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="325">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -1005,6 +1005,12 @@
   </si>
   <si>
     <t>16_01_04_traditional_data_centres</t>
+  </si>
+  <si>
+    <t>18_01_02_gas_power_h2</t>
+  </si>
+  <si>
+    <t>09_01_02_gas_power_h2</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290:B291"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2580,10 +2586,10 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="D117" t="s">
         <v>92</v>
@@ -2591,10 +2597,10 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
@@ -2602,10 +2608,10 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D119" t="s">
         <v>92</v>
@@ -2613,10 +2619,10 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
@@ -2624,10 +2630,10 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
@@ -2635,10 +2641,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
@@ -2646,10 +2652,10 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>
@@ -2657,10 +2663,10 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -2668,10 +2674,10 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
@@ -2679,10 +2685,10 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
@@ -2690,10 +2696,10 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
@@ -2701,10 +2707,10 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
@@ -2712,10 +2718,10 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
@@ -2723,10 +2729,10 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D130" t="s">
         <v>92</v>
@@ -2734,10 +2740,10 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
@@ -2745,10 +2751,10 @@
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
@@ -2756,10 +2762,10 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
@@ -2767,10 +2773,10 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D134" t="s">
         <v>92</v>
@@ -2778,10 +2784,10 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s">
         <v>92</v>
@@ -2789,10 +2795,10 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D136" t="s">
         <v>92</v>
@@ -2800,10 +2806,10 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D137" t="s">
         <v>92</v>
@@ -2811,10 +2817,10 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
         <v>92</v>
@@ -2822,10 +2828,10 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D139" t="s">
         <v>92</v>
@@ -2833,10 +2839,10 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
         <v>92</v>
@@ -2844,10 +2850,10 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D141" t="s">
         <v>92</v>
@@ -2855,10 +2861,10 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
         <v>92</v>
@@ -2866,10 +2872,10 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C143" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D143" t="s">
         <v>92</v>
@@ -2877,10 +2883,10 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D144" t="s">
         <v>92</v>
@@ -2888,10 +2894,10 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
@@ -2899,10 +2905,10 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
@@ -2910,10 +2916,10 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
@@ -2921,10 +2927,10 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
         <v>92</v>
@@ -2932,10 +2938,10 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D149" t="s">
         <v>92</v>
@@ -2943,10 +2949,10 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D150" t="s">
         <v>92</v>
@@ -2954,10 +2960,10 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
@@ -2965,10 +2971,10 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D152" t="s">
         <v>92</v>
@@ -2976,10 +2982,10 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
@@ -2987,10 +2993,10 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C154" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D154" t="s">
         <v>92</v>
@@ -2998,10 +3004,10 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C155" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
@@ -3009,10 +3015,10 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D156" t="s">
         <v>92</v>
@@ -3020,10 +3026,10 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
@@ -3031,10 +3037,10 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
@@ -3042,10 +3048,10 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
@@ -3053,10 +3059,10 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
@@ -3064,10 +3070,10 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
@@ -3075,10 +3081,10 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C162" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
@@ -3086,10 +3092,10 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C163" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
@@ -3097,10 +3103,10 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D164" t="s">
         <v>92</v>
@@ -3108,10 +3114,10 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D165" t="s">
         <v>92</v>
@@ -3119,10 +3125,10 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C166" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D166" t="s">
         <v>92</v>
@@ -3130,10 +3136,10 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C167" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D167" t="s">
         <v>92</v>
@@ -3141,10 +3147,10 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D168" t="s">
         <v>92</v>
@@ -3152,10 +3158,10 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C169" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>92</v>
@@ -3163,10 +3169,10 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C170" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
@@ -3174,10 +3180,10 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C171" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
@@ -3185,10 +3191,10 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C172" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
@@ -3196,10 +3202,10 @@
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="C173" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="D173" t="s">
         <v>92</v>
@@ -3207,10 +3213,10 @@
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="C174" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="D174" t="s">
         <v>92</v>
@@ -3218,10 +3224,10 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
@@ -3229,10 +3235,10 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
@@ -3240,10 +3246,10 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
@@ -3251,10 +3257,10 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D178" t="s">
         <v>92</v>
@@ -3262,10 +3268,10 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
@@ -3273,10 +3279,10 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
@@ -3284,10 +3290,10 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C181" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
@@ -3295,10 +3301,10 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="C182" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
@@ -3306,10 +3312,10 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
@@ -3317,10 +3323,10 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C184" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D184" t="s">
         <v>92</v>
@@ -3328,10 +3334,10 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C185" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D185" t="s">
         <v>92</v>
@@ -3339,10 +3345,10 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D186" t="s">
         <v>92</v>
@@ -3350,10 +3356,10 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D187" t="s">
         <v>92</v>
@@ -3361,10 +3367,10 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
@@ -3372,10 +3378,10 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="C189" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="D189" t="s">
         <v>92</v>
@@ -3383,10 +3389,10 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D190" t="s">
         <v>92</v>
@@ -3394,10 +3400,10 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D191" t="s">
         <v>92</v>
@@ -3405,10 +3411,10 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D192" t="s">
         <v>92</v>
@@ -3416,10 +3422,10 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D193" t="s">
         <v>92</v>
@@ -3427,10 +3433,10 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D194" t="s">
         <v>92</v>
@@ -3438,10 +3444,10 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
@@ -3449,10 +3455,10 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C196" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
@@ -3460,10 +3466,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="C197" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C198" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
@@ -3482,10 +3488,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
@@ -3493,10 +3499,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
@@ -3504,10 +3510,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
@@ -3515,10 +3521,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -3526,10 +3532,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C203" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
@@ -3537,10 +3543,10 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C204" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
@@ -3548,10 +3554,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="C205" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
@@ -3559,10 +3565,10 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="C206" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="D206" t="s">
         <v>92</v>
@@ -3570,10 +3576,10 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="C207" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="D207" t="s">
         <v>92</v>
@@ -3581,10 +3587,10 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C208" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D208" t="s">
         <v>92</v>
@@ -3592,10 +3598,10 @@
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C209" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D209" t="s">
         <v>92</v>
@@ -3603,10 +3609,10 @@
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D210" t="s">
         <v>92</v>
@@ -3614,10 +3620,10 @@
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C211" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D211" t="s">
         <v>92</v>
@@ -3625,10 +3631,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
@@ -3636,10 +3642,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
@@ -3647,10 +3653,10 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C214" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D214" t="s">
         <v>92</v>
@@ -3658,10 +3664,10 @@
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="C215" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="D215" t="s">
         <v>92</v>
@@ -3669,10 +3675,10 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D216" t="s">
         <v>92</v>
@@ -3680,10 +3686,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -3691,10 +3697,10 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -3702,10 +3708,10 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C219" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -3713,10 +3719,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D220" t="s">
         <v>92</v>
@@ -3724,10 +3730,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="C221" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="D221" t="s">
         <v>92</v>
@@ -3735,10 +3741,10 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C222" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D222" t="s">
         <v>92</v>
@@ -3746,10 +3752,10 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="C223" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="D223" t="s">
         <v>92</v>
@@ -3757,10 +3763,10 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C224" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D224" t="s">
         <v>92</v>
@@ -3768,10 +3774,10 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D225" t="s">
         <v>92</v>
@@ -3779,10 +3785,10 @@
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C226" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D226" t="s">
         <v>92</v>
@@ -3790,10 +3796,10 @@
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C227" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D227" t="s">
         <v>92</v>
@@ -3801,10 +3807,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D228" t="s">
         <v>92</v>
@@ -3812,10 +3818,10 @@
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="C229" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="D229" t="s">
         <v>92</v>
@@ -3823,10 +3829,10 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="C230" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D230" t="s">
         <v>92</v>
@@ -3834,10 +3840,10 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D231" t="s">
         <v>92</v>
@@ -3845,10 +3851,10 @@
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C232" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D232" t="s">
         <v>92</v>
@@ -3856,10 +3862,10 @@
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D233" t="s">
         <v>92</v>
@@ -3867,10 +3873,10 @@
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C234" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D234" t="s">
         <v>92</v>
@@ -3878,10 +3884,10 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C235" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D235" t="s">
         <v>92</v>
@@ -3889,10 +3895,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D236" t="s">
         <v>92</v>
@@ -3900,10 +3906,10 @@
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C237" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="D237" t="s">
         <v>92</v>
@@ -3911,10 +3917,10 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="D238" t="s">
         <v>92</v>
@@ -3922,10 +3928,10 @@
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D239" t="s">
         <v>92</v>
@@ -3933,10 +3939,10 @@
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D240" t="s">
         <v>92</v>
@@ -3944,10 +3950,10 @@
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D241" t="s">
         <v>92</v>
@@ -3955,10 +3961,10 @@
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C242" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="D242" t="s">
         <v>92</v>
@@ -3966,10 +3972,10 @@
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D243" t="s">
         <v>92</v>
@@ -3977,10 +3983,10 @@
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D244" t="s">
         <v>92</v>
@@ -3988,10 +3994,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D245" t="s">
         <v>92</v>
@@ -3999,10 +4005,10 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D246" t="s">
         <v>92</v>
@@ -4010,10 +4016,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D247" t="s">
         <v>92</v>
@@ -4021,10 +4027,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C248" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="D248" t="s">
         <v>92</v>
@@ -4032,10 +4038,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="C249" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="D249" t="s">
         <v>92</v>
@@ -4043,10 +4049,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="C250" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="D250" t="s">
         <v>92</v>
@@ -4054,10 +4060,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C251" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D251" t="s">
         <v>92</v>
@@ -4065,10 +4071,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C252" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D252" t="s">
         <v>92</v>
@@ -4076,10 +4082,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C253" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D253" t="s">
         <v>92</v>
@@ -4087,10 +4093,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C254" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D254" t="s">
         <v>92</v>
@@ -4098,10 +4104,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C255" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D255" t="s">
         <v>92</v>
@@ -4109,10 +4115,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C256" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D256" t="s">
         <v>92</v>
@@ -4120,10 +4126,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C257" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D257" t="s">
         <v>92</v>
@@ -4131,10 +4137,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C258" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D258" t="s">
         <v>92</v>
@@ -4142,10 +4148,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C259" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D259" t="s">
         <v>92</v>
@@ -4153,10 +4159,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C260" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D260" t="s">
         <v>92</v>
@@ -4164,10 +4170,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C261" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
@@ -4175,10 +4181,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C262" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D262" t="s">
         <v>92</v>
@@ -4186,10 +4192,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C263" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D263" t="s">
         <v>92</v>
@@ -4197,10 +4203,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C264" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D264" t="s">
         <v>92</v>
@@ -4208,10 +4214,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C265" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D265" t="s">
         <v>92</v>
@@ -4219,10 +4225,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C266" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D266" t="s">
         <v>92</v>
@@ -4230,10 +4236,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C267" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D267" t="s">
         <v>92</v>
@@ -4241,10 +4247,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C268" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D268" t="s">
         <v>92</v>
@@ -4252,10 +4258,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C269" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D269" t="s">
         <v>92</v>
@@ -4263,10 +4269,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C270" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D270" t="s">
         <v>92</v>
@@ -4274,10 +4280,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C271" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D271" t="s">
         <v>92</v>
@@ -4285,10 +4291,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C272" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D272" t="s">
         <v>92</v>
@@ -4296,10 +4302,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C273" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D273" t="s">
         <v>92</v>
@@ -4307,10 +4313,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C274" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D274" t="s">
         <v>92</v>
@@ -4318,10 +4324,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C275" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D275" t="s">
         <v>92</v>
@@ -4329,10 +4335,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C276" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D276" t="s">
         <v>92</v>
@@ -4340,10 +4346,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C277" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D277" t="s">
         <v>92</v>
@@ -4351,10 +4357,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C278" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D278" t="s">
         <v>92</v>
@@ -4362,10 +4368,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C279" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="D279" t="s">
         <v>92</v>
@@ -4373,10 +4379,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C280" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4384,10 +4390,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C281" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4395,10 +4401,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C282" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4406,10 +4412,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C283" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4417,10 +4423,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C284" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4428,10 +4434,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C285" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4439,10 +4445,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C286" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4450,10 +4456,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4461,10 +4467,10 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D288" t="s">
         <v>92</v>
@@ -4472,34 +4478,56 @@
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289" t="s">
+        <v>292</v>
+      </c>
+      <c r="D289" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290" t="s">
+        <v>293</v>
+      </c>
+      <c r="D290" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
         <v>294</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C291" t="s">
         <v>294</v>
       </c>
-      <c r="D289" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4">
-      <c r="B290" s="1" t="s">
+      <c r="D291" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D290" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4">
-      <c r="B291" s="1" t="s">
+      <c r="D292" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D293" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4510,6 +4538,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4720,15 +4757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4741,6 +4769,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4759,14 +4795,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
   <ds:schemaRefs>

--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC3F10C-2A73-40D5-B1E3-60D0E3E62D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429BA12-0E48-4201-92C6-BDA6246A5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6750" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="sectors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1495,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
   <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
@@ -4547,6 +4547,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4757,17 +4768,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
   <ds:schemaRefs>
@@ -4777,6 +4777,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4793,15 +4804,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429BA12-0E48-4201-92C6-BDA6246A5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF092358-83D2-47FE-8871-57018820FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="331">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -1011,6 +1011,24 @@
   </si>
   <si>
     <t>09_01_02_gas_power_h2</t>
+  </si>
+  <si>
+    <t>15_02_02_03_09_lng</t>
+  </si>
+  <si>
+    <t>15_02_02_04_09_lng</t>
+  </si>
+  <si>
+    <t>15_02_02_02_09_lng</t>
+  </si>
+  <si>
+    <t>15_02_02_01_09_lng</t>
+  </si>
+  <si>
+    <t>15_02_01_01_09_lng</t>
+  </si>
+  <si>
+    <t>15_02_01_02_09_lng</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3224,10 +3242,10 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="C175" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
@@ -3235,10 +3253,10 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="C176" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
@@ -3246,10 +3264,10 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C177" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
@@ -3257,10 +3275,10 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C178" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D178" t="s">
         <v>92</v>
@@ -3268,10 +3286,10 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C179" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
@@ -3279,10 +3297,10 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
@@ -3290,10 +3308,10 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C181" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
@@ -3301,10 +3319,10 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="C182" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
@@ -3312,10 +3330,10 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C183" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
@@ -3323,10 +3341,10 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C184" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="D184" t="s">
         <v>92</v>
@@ -3334,10 +3352,10 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="C185" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="D185" t="s">
         <v>92</v>
@@ -3345,10 +3363,10 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="C186" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="D186" t="s">
         <v>92</v>
@@ -3356,10 +3374,10 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D187" t="s">
         <v>92</v>
@@ -3367,10 +3385,10 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C188" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
@@ -3378,10 +3396,10 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D189" t="s">
         <v>92</v>
@@ -3389,10 +3407,10 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D190" t="s">
         <v>92</v>
@@ -3400,10 +3418,10 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C191" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D191" t="s">
         <v>92</v>
@@ -3411,10 +3429,10 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C192" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D192" t="s">
         <v>92</v>
@@ -3422,10 +3440,10 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C193" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D193" t="s">
         <v>92</v>
@@ -3433,10 +3451,10 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="C194" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="D194" t="s">
         <v>92</v>
@@ -3444,10 +3462,10 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C195" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
@@ -3455,10 +3473,10 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C196" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
@@ -3466,10 +3484,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C197" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
@@ -3477,10 +3495,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C198" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
@@ -3488,10 +3506,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="C199" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
@@ -3499,10 +3517,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="C200" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
@@ -3510,10 +3528,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
@@ -3521,10 +3539,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -3532,10 +3550,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C203" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
@@ -3543,10 +3561,10 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
@@ -3554,10 +3572,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
@@ -3565,10 +3583,10 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="D206" t="s">
         <v>92</v>
@@ -3576,10 +3594,10 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C207" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D207" t="s">
         <v>92</v>
@@ -3587,10 +3605,10 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="C208" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="D208" t="s">
         <v>92</v>
@@ -3598,10 +3616,10 @@
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="C209" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="D209" t="s">
         <v>92</v>
@@ -3609,10 +3627,10 @@
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C210" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D210" t="s">
         <v>92</v>
@@ -3620,10 +3638,10 @@
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="C211" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="D211" t="s">
         <v>92</v>
@@ -3631,10 +3649,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
@@ -3642,10 +3660,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C213" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
@@ -3653,10 +3671,10 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="D214" t="s">
         <v>92</v>
@@ -3664,10 +3682,10 @@
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="C215" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="D215" t="s">
         <v>92</v>
@@ -3675,10 +3693,10 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C216" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D216" t="s">
         <v>92</v>
@@ -3686,10 +3704,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C217" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -3697,10 +3715,10 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="C218" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -3708,10 +3726,10 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="C219" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -3719,10 +3737,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>145</v>
+        <v>328</v>
       </c>
       <c r="C220" t="s">
-        <v>145</v>
+        <v>328</v>
       </c>
       <c r="D220" t="s">
         <v>92</v>
@@ -3730,10 +3748,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="C221" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="D221" t="s">
         <v>92</v>
@@ -3741,10 +3759,10 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="C222" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="D222" t="s">
         <v>92</v>
@@ -3752,10 +3770,10 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="C223" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="D223" t="s">
         <v>92</v>
@@ -3763,10 +3781,10 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C224" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D224" t="s">
         <v>92</v>
@@ -3774,10 +3792,10 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C225" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D225" t="s">
         <v>92</v>
@@ -3785,10 +3803,10 @@
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D226" t="s">
         <v>92</v>
@@ -3796,10 +3814,10 @@
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C227" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D227" t="s">
         <v>92</v>
@@ -3807,10 +3825,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="C228" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D228" t="s">
         <v>92</v>
@@ -3818,10 +3836,10 @@
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="C229" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="D229" t="s">
         <v>92</v>
@@ -3829,10 +3847,10 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="C230" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="D230" t="s">
         <v>92</v>
@@ -3840,10 +3858,10 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="C231" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="D231" t="s">
         <v>92</v>
@@ -3851,10 +3869,10 @@
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C232" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D232" t="s">
         <v>92</v>
@@ -3862,10 +3880,10 @@
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C233" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D233" t="s">
         <v>92</v>
@@ -3873,10 +3891,10 @@
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C234" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D234" t="s">
         <v>92</v>
@@ -3884,10 +3902,10 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C235" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D235" t="s">
         <v>92</v>
@@ -3895,10 +3913,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C236" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D236" t="s">
         <v>92</v>
@@ -3906,10 +3924,10 @@
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D237" t="s">
         <v>92</v>
@@ -3917,10 +3935,10 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C238" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D238" t="s">
         <v>92</v>
@@ -3928,10 +3946,10 @@
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="C239" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="D239" t="s">
         <v>92</v>
@@ -3939,10 +3957,10 @@
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C240" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="D240" t="s">
         <v>92</v>
@@ -3950,10 +3968,10 @@
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C241" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D241" t="s">
         <v>92</v>
@@ -3961,10 +3979,10 @@
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C242" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D242" t="s">
         <v>92</v>
@@ -3972,10 +3990,10 @@
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C243" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="D243" t="s">
         <v>92</v>
@@ -3983,10 +4001,10 @@
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C244" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D244" t="s">
         <v>92</v>
@@ -3994,10 +4012,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="D245" t="s">
         <v>92</v>
@@ -4005,10 +4023,10 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C246" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="D246" t="s">
         <v>92</v>
@@ -4016,10 +4034,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="C247" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="D247" t="s">
         <v>92</v>
@@ -4027,10 +4045,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="C248" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="D248" t="s">
         <v>92</v>
@@ -4038,10 +4056,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="C249" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="D249" t="s">
         <v>92</v>
@@ -4049,10 +4067,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C250" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D250" t="s">
         <v>92</v>
@@ -4060,10 +4078,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="C251" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="D251" t="s">
         <v>92</v>
@@ -4071,10 +4089,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C252" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="D252" t="s">
         <v>92</v>
@@ -4082,10 +4100,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="C253" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="D253" t="s">
         <v>92</v>
@@ -4093,10 +4111,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="D254" t="s">
         <v>92</v>
@@ -4104,10 +4122,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C255" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D255" t="s">
         <v>92</v>
@@ -4115,10 +4133,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C256" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D256" t="s">
         <v>92</v>
@@ -4126,10 +4144,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C257" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D257" t="s">
         <v>92</v>
@@ -4137,10 +4155,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C258" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D258" t="s">
         <v>92</v>
@@ -4148,10 +4166,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C259" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D259" t="s">
         <v>92</v>
@@ -4159,10 +4177,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C260" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D260" t="s">
         <v>92</v>
@@ -4170,10 +4188,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C261" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
@@ -4181,10 +4199,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="C262" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="D262" t="s">
         <v>92</v>
@@ -4192,10 +4210,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C263" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D263" t="s">
         <v>92</v>
@@ -4203,10 +4221,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C264" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D264" t="s">
         <v>92</v>
@@ -4214,10 +4232,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C265" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D265" t="s">
         <v>92</v>
@@ -4225,10 +4243,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C266" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D266" t="s">
         <v>92</v>
@@ -4236,10 +4254,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C267" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D267" t="s">
         <v>92</v>
@@ -4247,10 +4265,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C268" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D268" t="s">
         <v>92</v>
@@ -4258,10 +4276,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C269" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D269" t="s">
         <v>92</v>
@@ -4269,10 +4287,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C270" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D270" t="s">
         <v>92</v>
@@ -4280,10 +4298,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C271" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D271" t="s">
         <v>92</v>
@@ -4291,10 +4309,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C272" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D272" t="s">
         <v>92</v>
@@ -4302,10 +4320,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C273" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D273" t="s">
         <v>92</v>
@@ -4313,10 +4331,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C274" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D274" t="s">
         <v>92</v>
@@ -4324,10 +4342,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C275" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D275" t="s">
         <v>92</v>
@@ -4335,10 +4353,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C276" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D276" t="s">
         <v>92</v>
@@ -4346,10 +4364,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C277" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D277" t="s">
         <v>92</v>
@@ -4357,10 +4375,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C278" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D278" t="s">
         <v>92</v>
@@ -4368,10 +4386,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C279" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D279" t="s">
         <v>92</v>
@@ -4379,10 +4397,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C280" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4390,10 +4408,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="C281" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4401,10 +4419,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="C282" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4412,10 +4430,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C283" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4423,10 +4441,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C284" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4434,10 +4452,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C285" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4445,10 +4463,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="C286" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4456,10 +4474,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C287" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4467,10 +4485,10 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C288" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="D288" t="s">
         <v>92</v>
@@ -4478,10 +4496,10 @@
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C289" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="D289" t="s">
         <v>92</v>
@@ -4489,10 +4507,10 @@
     </row>
     <row r="290" spans="2:4">
       <c r="B290" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="C290" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="D290" t="s">
         <v>92</v>
@@ -4500,34 +4518,166 @@
     </row>
     <row r="291" spans="2:4">
       <c r="B291" t="s">
+        <v>260</v>
+      </c>
+      <c r="C291" t="s">
+        <v>260</v>
+      </c>
+      <c r="D291" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
+        <v>261</v>
+      </c>
+      <c r="C292" t="s">
+        <v>261</v>
+      </c>
+      <c r="D292" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>317</v>
+      </c>
+      <c r="C293" t="s">
+        <v>317</v>
+      </c>
+      <c r="D293" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
+        <v>318</v>
+      </c>
+      <c r="C294" t="s">
+        <v>318</v>
+      </c>
+      <c r="D294" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>286</v>
+      </c>
+      <c r="C295" t="s">
+        <v>286</v>
+      </c>
+      <c r="D295" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>287</v>
+      </c>
+      <c r="C296" t="s">
+        <v>287</v>
+      </c>
+      <c r="D296" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" t="s">
+        <v>288</v>
+      </c>
+      <c r="D297" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>289</v>
+      </c>
+      <c r="C298" t="s">
+        <v>289</v>
+      </c>
+      <c r="D298" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>290</v>
+      </c>
+      <c r="C299" t="s">
+        <v>290</v>
+      </c>
+      <c r="D299" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>291</v>
+      </c>
+      <c r="C300" t="s">
+        <v>291</v>
+      </c>
+      <c r="D300" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>292</v>
+      </c>
+      <c r="C301" t="s">
+        <v>292</v>
+      </c>
+      <c r="D301" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" t="s">
+        <v>293</v>
+      </c>
+      <c r="D302" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
         <v>294</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C303" t="s">
         <v>294</v>
       </c>
-      <c r="D291" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4">
-      <c r="B292" s="1" t="s">
+      <c r="D303" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D292" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4">
-      <c r="B293" s="1" t="s">
+      <c r="D304" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D305" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4547,17 +4697,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4768,6 +4907,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3042e625-934f-4bb2-8533-cbb6446c8b2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
   <ds:schemaRefs>
@@ -4777,17 +4927,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
-    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4804,4 +4943,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
+    <ds:schemaRef ds:uri="3042e625-934f-4bb2-8533-cbb6446c8b2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF092358-83D2-47FE-8871-57018820FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE03D4E-076F-42DE-9176-69D4E75FE7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="333">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -1029,6 +1029,12 @@
   </si>
   <si>
     <t>15_02_01_02_09_lng</t>
+  </si>
+  <si>
+    <t>09_01_01_coal_power_ccs</t>
+  </si>
+  <si>
+    <t>18_01_01_coal_power_ccs</t>
   </si>
 </sst>
 </file>
@@ -1511,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2538,10 +2544,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="B111" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="D111" t="s">
         <v>92</v>
@@ -2549,10 +2555,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="B112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
         <v>92</v>
@@ -2560,10 +2566,10 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
         <v>92</v>
@@ -2571,10 +2577,10 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
         <v>92</v>
@@ -2582,10 +2588,10 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
         <v>92</v>
@@ -2593,10 +2599,10 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
         <v>92</v>
@@ -2604,10 +2610,10 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D117" t="s">
         <v>92</v>
@@ -2615,10 +2621,10 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
         <v>92</v>
@@ -2626,10 +2632,10 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
         <v>92</v>
@@ -2637,10 +2643,10 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D120" t="s">
         <v>92</v>
@@ -2648,10 +2654,10 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D121" t="s">
         <v>92</v>
@@ -2659,10 +2665,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D122" t="s">
         <v>92</v>
@@ -2670,10 +2676,10 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D123" t="s">
         <v>92</v>
@@ -2681,10 +2687,10 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -2692,10 +2698,10 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
         <v>92</v>
@@ -2703,10 +2709,10 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
@@ -2714,10 +2720,10 @@
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
@@ -2725,10 +2731,10 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D128" t="s">
         <v>92</v>
@@ -2736,10 +2742,10 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D129" t="s">
         <v>92</v>
@@ -2747,10 +2753,10 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
         <v>92</v>
@@ -2758,10 +2764,10 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D131" t="s">
         <v>92</v>
@@ -2769,10 +2775,10 @@
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
         <v>92</v>
@@ -2780,10 +2786,10 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D133" t="s">
         <v>92</v>
@@ -2791,10 +2797,10 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D134" t="s">
         <v>92</v>
@@ -2802,10 +2808,10 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D135" t="s">
         <v>92</v>
@@ -2813,10 +2819,10 @@
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
         <v>92</v>
@@ -2824,10 +2830,10 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" t="s">
         <v>92</v>
@@ -2835,10 +2841,10 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
         <v>92</v>
@@ -2846,10 +2852,10 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s">
         <v>92</v>
@@ -2857,10 +2863,10 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D140" t="s">
         <v>92</v>
@@ -2868,10 +2874,10 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D141" t="s">
         <v>92</v>
@@ -2879,10 +2885,10 @@
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D142" t="s">
         <v>92</v>
@@ -2890,10 +2896,10 @@
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D143" t="s">
         <v>92</v>
@@ -2901,10 +2907,10 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D144" t="s">
         <v>92</v>
@@ -2912,10 +2918,10 @@
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D145" t="s">
         <v>92</v>
@@ -2923,10 +2929,10 @@
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
         <v>92</v>
@@ -2934,10 +2940,10 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="D147" t="s">
         <v>92</v>
@@ -2945,10 +2951,10 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D148" t="s">
         <v>92</v>
@@ -2956,10 +2962,10 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
         <v>92</v>
@@ -2967,10 +2973,10 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D150" t="s">
         <v>92</v>
@@ -2978,10 +2984,10 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D151" t="s">
         <v>92</v>
@@ -2989,10 +2995,10 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D152" t="s">
         <v>92</v>
@@ -3000,10 +3006,10 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
@@ -3011,10 +3017,10 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
         <v>92</v>
@@ -3022,10 +3028,10 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D155" t="s">
         <v>92</v>
@@ -3033,10 +3039,10 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
         <v>92</v>
@@ -3044,10 +3050,10 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D157" t="s">
         <v>92</v>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D158" t="s">
         <v>92</v>
@@ -3066,10 +3072,10 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D159" t="s">
         <v>92</v>
@@ -3077,10 +3083,10 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D160" t="s">
         <v>92</v>
@@ -3088,10 +3094,10 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D161" t="s">
         <v>92</v>
@@ -3099,10 +3105,10 @@
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D162" t="s">
         <v>92</v>
@@ -3110,10 +3116,10 @@
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D163" t="s">
         <v>92</v>
@@ -3121,10 +3127,10 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D164" t="s">
         <v>92</v>
@@ -3132,10 +3138,10 @@
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
         <v>92</v>
@@ -3143,10 +3149,10 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D166" t="s">
         <v>92</v>
@@ -3154,10 +3160,10 @@
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D167" t="s">
         <v>92</v>
@@ -3165,10 +3171,10 @@
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C168" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D168" t="s">
         <v>92</v>
@@ -3176,10 +3182,10 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D169" t="s">
         <v>92</v>
@@ -3187,10 +3193,10 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D170" t="s">
         <v>92</v>
@@ -3198,10 +3204,10 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D171" t="s">
         <v>92</v>
@@ -3209,10 +3215,10 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C172" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D172" t="s">
         <v>92</v>
@@ -3220,10 +3226,10 @@
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D173" t="s">
         <v>92</v>
@@ -3231,10 +3237,10 @@
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="C174" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="D174" t="s">
         <v>92</v>
@@ -3242,10 +3248,10 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C175" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D175" t="s">
         <v>92</v>
@@ -3253,10 +3259,10 @@
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="D176" t="s">
         <v>92</v>
@@ -3264,10 +3270,10 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="C177" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="D177" t="s">
         <v>92</v>
@@ -3275,10 +3281,10 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
         <v>92</v>
@@ -3286,10 +3292,10 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C179" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D179" t="s">
         <v>92</v>
@@ -3297,10 +3303,10 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C180" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D180" t="s">
         <v>92</v>
@@ -3308,10 +3314,10 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D181" t="s">
         <v>92</v>
@@ -3319,10 +3325,10 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D182" t="s">
         <v>92</v>
@@ -3330,10 +3336,10 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D183" t="s">
         <v>92</v>
@@ -3341,10 +3347,10 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C184" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="D184" t="s">
         <v>92</v>
@@ -3352,10 +3358,10 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C185" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D185" t="s">
         <v>92</v>
@@ -3363,10 +3369,10 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="C186" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="D186" t="s">
         <v>92</v>
@@ -3374,10 +3380,10 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="C187" t="s">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="D187" t="s">
         <v>92</v>
@@ -3385,10 +3391,10 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D188" t="s">
         <v>92</v>
@@ -3396,10 +3402,10 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D189" t="s">
         <v>92</v>
@@ -3407,10 +3413,10 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D190" t="s">
         <v>92</v>
@@ -3418,10 +3424,10 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D191" t="s">
         <v>92</v>
@@ -3429,10 +3435,10 @@
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C192" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D192" t="s">
         <v>92</v>
@@ -3440,10 +3446,10 @@
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D193" t="s">
         <v>92</v>
@@ -3451,10 +3457,10 @@
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="C194" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="D194" t="s">
         <v>92</v>
@@ -3462,10 +3468,10 @@
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C195" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
@@ -3473,10 +3479,10 @@
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D196" t="s">
         <v>92</v>
@@ -3484,10 +3490,10 @@
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C197" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D197" t="s">
         <v>92</v>
@@ -3495,10 +3501,10 @@
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198" t="s">
         <v>92</v>
@@ -3506,10 +3512,10 @@
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C199" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D199" t="s">
         <v>92</v>
@@ -3517,10 +3523,10 @@
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D200" t="s">
         <v>92</v>
@@ -3528,10 +3534,10 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D201" t="s">
         <v>92</v>
@@ -3539,10 +3545,10 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="C202" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="D202" t="s">
         <v>92</v>
@@ -3550,10 +3556,10 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D203" t="s">
         <v>92</v>
@@ -3561,10 +3567,10 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D204" t="s">
         <v>92</v>
@@ -3572,10 +3578,10 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D205" t="s">
         <v>92</v>
@@ -3583,10 +3589,10 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D206" t="s">
         <v>92</v>
@@ -3594,10 +3600,10 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C207" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D207" t="s">
         <v>92</v>
@@ -3605,10 +3611,10 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D208" t="s">
         <v>92</v>
@@ -3616,10 +3622,10 @@
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D209" t="s">
         <v>92</v>
@@ -3627,10 +3633,10 @@
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="C210" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="D210" t="s">
         <v>92</v>
@@ -3638,10 +3644,10 @@
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="C211" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="D211" t="s">
         <v>92</v>
@@ -3649,10 +3655,10 @@
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="C212" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="D212" t="s">
         <v>92</v>
@@ -3660,10 +3666,10 @@
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C213" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D213" t="s">
         <v>92</v>
@@ -3671,10 +3677,10 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C214" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D214" t="s">
         <v>92</v>
@@ -3682,10 +3688,10 @@
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C215" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D215" t="s">
         <v>92</v>
@@ -3693,10 +3699,10 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D216" t="s">
         <v>92</v>
@@ -3704,10 +3710,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C217" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -3715,10 +3721,10 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -3726,10 +3732,10 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -3737,10 +3743,10 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="C220" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="D220" t="s">
         <v>92</v>
@@ -3748,10 +3754,10 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C221" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="D221" t="s">
         <v>92</v>
@@ -3759,10 +3765,10 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="C222" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="D222" t="s">
         <v>92</v>
@@ -3770,10 +3776,10 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D223" t="s">
         <v>92</v>
@@ -3781,10 +3787,10 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C224" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D224" t="s">
         <v>92</v>
@@ -3792,10 +3798,10 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D225" t="s">
         <v>92</v>
@@ -3803,10 +3809,10 @@
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D226" t="s">
         <v>92</v>
@@ -3814,10 +3820,10 @@
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D227" t="s">
         <v>92</v>
@@ -3825,10 +3831,10 @@
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="C228" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="D228" t="s">
         <v>92</v>
@@ -3836,10 +3842,10 @@
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C229" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D229" t="s">
         <v>92</v>
@@ -3847,10 +3853,10 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="D230" t="s">
         <v>92</v>
@@ -3858,10 +3864,10 @@
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="C231" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="D231" t="s">
         <v>92</v>
@@ -3869,10 +3875,10 @@
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="C232" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="D232" t="s">
         <v>92</v>
@@ -3880,10 +3886,10 @@
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D233" t="s">
         <v>92</v>
@@ -3891,10 +3897,10 @@
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D234" t="s">
         <v>92</v>
@@ -3902,10 +3908,10 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D235" t="s">
         <v>92</v>
@@ -3913,10 +3919,10 @@
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C236" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D236" t="s">
         <v>92</v>
@@ -3924,10 +3930,10 @@
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C237" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D237" t="s">
         <v>92</v>
@@ -3935,10 +3941,10 @@
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="C238" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="D238" t="s">
         <v>92</v>
@@ -3946,10 +3952,10 @@
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C239" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D239" t="s">
         <v>92</v>
@@ -3957,10 +3963,10 @@
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C240" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="D240" t="s">
         <v>92</v>
@@ -3968,10 +3974,10 @@
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="C241" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="D241" t="s">
         <v>92</v>
@@ -3979,10 +3985,10 @@
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C242" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D242" t="s">
         <v>92</v>
@@ -3990,10 +3996,10 @@
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D243" t="s">
         <v>92</v>
@@ -4001,10 +4007,10 @@
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C244" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D244" t="s">
         <v>92</v>
@@ -4012,10 +4018,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C245" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D245" t="s">
         <v>92</v>
@@ -4023,10 +4029,10 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C246" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D246" t="s">
         <v>92</v>
@@ -4034,10 +4040,10 @@
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D247" t="s">
         <v>92</v>
@@ -4045,10 +4051,10 @@
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C248" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="D248" t="s">
         <v>92</v>
@@ -4056,10 +4062,10 @@
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C249" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D249" t="s">
         <v>92</v>
@@ -4067,10 +4073,10 @@
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C250" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="D250" t="s">
         <v>92</v>
@@ -4078,10 +4084,10 @@
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="C251" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="D251" t="s">
         <v>92</v>
@@ -4089,10 +4095,10 @@
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D252" t="s">
         <v>92</v>
@@ -4100,10 +4106,10 @@
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C253" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D253" t="s">
         <v>92</v>
@@ -4111,10 +4117,10 @@
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D254" t="s">
         <v>92</v>
@@ -4122,10 +4128,10 @@
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C255" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="D255" t="s">
         <v>92</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D256" t="s">
         <v>92</v>
@@ -4144,10 +4150,10 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C257" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="D257" t="s">
         <v>92</v>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C258" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D258" t="s">
         <v>92</v>
@@ -4166,10 +4172,10 @@
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C259" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D259" t="s">
         <v>92</v>
@@ -4177,10 +4183,10 @@
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C260" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D260" t="s">
         <v>92</v>
@@ -4188,10 +4194,10 @@
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="C261" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="D261" t="s">
         <v>92</v>
@@ -4199,10 +4205,10 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="C262" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="D262" t="s">
         <v>92</v>
@@ -4210,10 +4216,10 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="C263" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="D263" t="s">
         <v>92</v>
@@ -4221,10 +4227,10 @@
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="C264" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="D264" t="s">
         <v>92</v>
@@ -4232,10 +4238,10 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C265" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D265" t="s">
         <v>92</v>
@@ -4243,10 +4249,10 @@
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C266" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D266" t="s">
         <v>92</v>
@@ -4254,10 +4260,10 @@
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C267" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D267" t="s">
         <v>92</v>
@@ -4265,10 +4271,10 @@
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C268" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D268" t="s">
         <v>92</v>
@@ -4276,10 +4282,10 @@
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C269" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D269" t="s">
         <v>92</v>
@@ -4287,10 +4293,10 @@
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C270" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D270" t="s">
         <v>92</v>
@@ -4298,10 +4304,10 @@
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C271" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D271" t="s">
         <v>92</v>
@@ -4309,10 +4315,10 @@
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C272" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D272" t="s">
         <v>92</v>
@@ -4320,10 +4326,10 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C273" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D273" t="s">
         <v>92</v>
@@ -4331,10 +4337,10 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C274" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D274" t="s">
         <v>92</v>
@@ -4342,10 +4348,10 @@
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C275" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D275" t="s">
         <v>92</v>
@@ -4353,10 +4359,10 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C276" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D276" t="s">
         <v>92</v>
@@ -4364,10 +4370,10 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C277" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D277" t="s">
         <v>92</v>
@@ -4375,10 +4381,10 @@
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C278" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D278" t="s">
         <v>92</v>
@@ -4386,10 +4392,10 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C279" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D279" t="s">
         <v>92</v>
@@ -4397,10 +4403,10 @@
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C280" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D280" t="s">
         <v>92</v>
@@ -4408,10 +4414,10 @@
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C281" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D281" t="s">
         <v>92</v>
@@ -4419,10 +4425,10 @@
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C282" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D282" t="s">
         <v>92</v>
@@ -4430,10 +4436,10 @@
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C283" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D283" t="s">
         <v>92</v>
@@ -4441,10 +4447,10 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C284" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D284" t="s">
         <v>92</v>
@@ -4452,10 +4458,10 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C285" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
@@ -4463,10 +4469,10 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C286" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D286" t="s">
         <v>92</v>
@@ -4474,10 +4480,10 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C287" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D287" t="s">
         <v>92</v>
@@ -4485,10 +4491,10 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C288" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D288" t="s">
         <v>92</v>
@@ -4496,10 +4502,10 @@
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C289" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D289" t="s">
         <v>92</v>
@@ -4507,10 +4513,10 @@
     </row>
     <row r="290" spans="2:4">
       <c r="B290" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C290" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D290" t="s">
         <v>92</v>
@@ -4518,10 +4524,10 @@
     </row>
     <row r="291" spans="2:4">
       <c r="B291" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C291" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D291" t="s">
         <v>92</v>
@@ -4529,10 +4535,10 @@
     </row>
     <row r="292" spans="2:4">
       <c r="B292" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C292" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D292" t="s">
         <v>92</v>
@@ -4540,10 +4546,10 @@
     </row>
     <row r="293" spans="2:4">
       <c r="B293" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C293" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="D293" t="s">
         <v>92</v>
@@ -4551,10 +4557,10 @@
     </row>
     <row r="294" spans="2:4">
       <c r="B294" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C294" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D294" t="s">
         <v>92</v>
@@ -4562,10 +4568,10 @@
     </row>
     <row r="295" spans="2:4">
       <c r="B295" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C295" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="D295" t="s">
         <v>92</v>
@@ -4573,10 +4579,10 @@
     </row>
     <row r="296" spans="2:4">
       <c r="B296" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C296" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D296" t="s">
         <v>92</v>
@@ -4584,10 +4590,10 @@
     </row>
     <row r="297" spans="2:4">
       <c r="B297" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C297" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D297" t="s">
         <v>92</v>
@@ -4595,10 +4601,10 @@
     </row>
     <row r="298" spans="2:4">
       <c r="B298" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C298" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D298" t="s">
         <v>92</v>
@@ -4606,10 +4612,10 @@
     </row>
     <row r="299" spans="2:4">
       <c r="B299" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C299" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D299" t="s">
         <v>92</v>
@@ -4617,10 +4623,10 @@
     </row>
     <row r="300" spans="2:4">
       <c r="B300" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C300" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D300" t="s">
         <v>92</v>
@@ -4628,10 +4634,10 @@
     </row>
     <row r="301" spans="2:4">
       <c r="B301" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C301" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D301" t="s">
         <v>92</v>
@@ -4639,10 +4645,10 @@
     </row>
     <row r="302" spans="2:4">
       <c r="B302" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C302" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D302" t="s">
         <v>92</v>
@@ -4650,34 +4656,56 @@
     </row>
     <row r="303" spans="2:4">
       <c r="B303" t="s">
+        <v>292</v>
+      </c>
+      <c r="C303" t="s">
+        <v>292</v>
+      </c>
+      <c r="D303" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" t="s">
+        <v>293</v>
+      </c>
+      <c r="D304" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
         <v>294</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C305" t="s">
         <v>294</v>
       </c>
-      <c r="D303" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4">
-      <c r="B304" s="1" t="s">
+      <c r="D305" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D304" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4">
-      <c r="B305" s="1" t="s">
+      <c r="D306" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D307" t="s">
         <v>92</v>
       </c>
     </row>

--- a/config/reference_table_sector.xlsx
+++ b/config/reference_table_sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuga.kasai\Documents\Github\Outlook9th_EBT\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE03D4E-076F-42DE-9176-69D4E75FE7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0325A-3F68-4A3C-8899-F0F882C61186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2CF52B6-4E3D-4DA0-8DC0-D6A8EB942BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="sectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="334">
   <si>
     <t>unique_the_end_of_sectors</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>18_01_01_coal_power_ccs</t>
+  </si>
+  <si>
+    <t>added to allow for manipulation of historical data to insert data centres demand, for singapore specifcially</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,6 +1130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1151,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,6 +1212,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F16BD-6EAF-4DFC-894F-17C14E0AC30D}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4676,7 +4689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="1:5">
       <c r="B305" t="s">
         <v>294</v>
       </c>
@@ -4687,26 +4700,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
-      <c r="B306" s="1" t="s">
+    <row r="306" spans="1:5">
+      <c r="A306" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="B306" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="D306" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4">
-      <c r="B307" s="1" t="s">
+      <c r="C306" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E306" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="B307" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D307" t="s">
-        <v>92</v>
+      <c r="C307" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D307" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E307" s="25" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4716,15 +4741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033DE4B8CEBD9304286F1E0B7BC383844" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d76399d66d45378b52bd24e5db7672eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa" xmlns:ns3="3042e625-934f-4bb2-8533-cbb6446c8b2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f81e3bb06f6900da50fdd409f0138bcf" ns2:_="" ns3:_="">
     <xsd:import namespace="339e5aef-327d-4eb6-a8e0-9b2fd01ac0fa"/>
@@ -4935,6 +4951,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4947,14 +4972,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF95C38B-BFCD-4DB4-B445-2AEE8E534FF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4973,6 +4990,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA31DF46-11A9-4EBF-939B-7AC177202FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D167C1-C23B-4884-BFCC-8FA899DFAD4D}">
   <ds:schemaRefs>
